--- a/pred_ohlcv/54_21/2020-01-13 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 OCN ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>40220052.5068969</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>41661064.0753969</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>41801858.00139689</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>47496188.3108969</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>42498231.0305969</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>46301627.5093969</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>45344254.11049689</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>46818407.9987969</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>60393085.8214969</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>58457539.90849689</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>59442868.22789689</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>60990773.7364969</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>60638032.99119689</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>50286910.42728677</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>71816260.50213212</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>71788004.66363212</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>73350247.13563213</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>61507661.04224239</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>60269489.31798864</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>60269489.31798864</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>60161414.67198864</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>60161414.67198864</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>60239484.67198864</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>60239484.67198864</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>63116131.21108864</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>65891884.74668864</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>65889798.31018864</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>65439053.79918864</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>65308413.58408865</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>65309613.58408865</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>64599489.68918864</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>68034137.44128525</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>68336573.82079563</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>67251092.98897891</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>67913141.98637891</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>66983899.53557891</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>66983899.53557891</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>66983899.53557891</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>66983899.53557891</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>66980046.02677891</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>60734968.5283789</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>60870526.7730789</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>60870526.7730789</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>60874442.24852949</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>60852767.2389295</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>62421854.15342949</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>62421854.15342949</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>57982352.2707295</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>60243051.7638295</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>65358288.0732295</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>65354032.7538295</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>65358561.8995295</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>65358561.8995295</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>65294607.9638295</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>65294607.9638295</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>65294607.9638295</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>65299607.9638295</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>65230663.3954295</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>65229233.3954295</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>65229233.3954295</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>65229233.3954295</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>63829857.8436295</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>63834561.0129295</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>61982161.6524295</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>65569360.22652949</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>65669360.22652949</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>65666960.22652949</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>65666960.22652949</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>65666960.22652949</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>65663960.22652949</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>65666160.22652949</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>65666160.22652949</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>65393810.22652949</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>67562021.42522949</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>71270221.60832949</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>71612755.16982949</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>71496839.89122948</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>72528808.33113152</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>69680242.70873152</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>69413195.83563152</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>70274969.22593153</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>70274969.22593153</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>67918929.93323153</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>67404222.06703153</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>67407701.98073153</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>67408875.43933153</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>67381875.43933153</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>67382925.43933153</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>67256875.43933153</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>67259351.85341905</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>65336408.16401905</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>66687897.55291905</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>66562727.55291905</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>59381673.20261905</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>59651749.89172421</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>55094597.7676242</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>65816250.24539644</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>63233115.25799643</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>63962702.43299643</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>61007374.25439643</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>62566690.09669643</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>61816004.1656449</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>62356026.8059449</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>62356026.8059449</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>59747351.17854489</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>57779707.95474489</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>58033197.95474489</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>58327857.04964489</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>50605373.88604489</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>46614558.27244489</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>37425935.87834489</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>43801701.10844489</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>39708195.42564489</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>46295863.91164489</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>50344607.14280584</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>55846624.40752113</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>67236623.73547117</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>42757018.44779395</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>42758018.44779395</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>32073290.73649395</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>26254467.58709394</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>28678561.59459394</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>23036646.33879394</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>31601320.44879394</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>31601320.44879394</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>30315206.01199394</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>36423377.02129012</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>35775411.37397414</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>38665867.46254503</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>50607104.51884504</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>44793701.14044504</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>47820621.96974504</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>49302844.26264504</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>55788059.54784504</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>48584704.13724504</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>50370039.88704504</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>32559016.09074504</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>35761329.23984504</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>36105218.58744504</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>38628904.00201911</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>27782417.40921912</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>27782417.40921912</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>27782417.40921912</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>27782417.40921912</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>26392962.49141911</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>25174743.18891912</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>30865698.54581911</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>31238466.84089465</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>28226632.75469465</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>22898183.12259465</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>22899183.12259465</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>22163220.88109465</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>23240847.99309465</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>21519112.30879465</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>21819843.15569465</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>21889912.82449465</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>22022774.10359465</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>21469761.10359465</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>21472130.87559465</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>21430923.45789465</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>20262114.08479465</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>21620408.76559465</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>21620408.76559465</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>21620408.76559465</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>21620408.76559465</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>13156213.58469465</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>13782494.88469465</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 OCN ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>20836869.4118969</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>43476244.0517969</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>44811059.8137969</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>40220052.5068969</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>41661064.0753969</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>41801858.00139689</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>47496188.3108969</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>42498231.0305969</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>46301627.5093969</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>45344254.11049689</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>46818407.9987969</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>60393085.8214969</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>58457539.90849689</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>59442868.22789689</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>60990773.7364969</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>60638032.99119689</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>55776111.46348678</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>55776111.46348678</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>55684650.67398678</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>55895151.80868678</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>55928551.80868678</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>55928551.80868678</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>56829752.42058678</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>64713999.86968678</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>68199604.19258678</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>68181326.16281547</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>68181326.16281547</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>59060279.61168864</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>62022292.5781295</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>62101391.3875295</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>62106094.5568295</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>62107815.4063295</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>62106092.3279295</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>65665060.22652949</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>65666160.22652949</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>60936022.81341904</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>60936022.81341904</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>60278016.81341904</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>60161446.81341904</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>59651749.89172421</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>57272191.58332421</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>57272191.58332421</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>57397771.58332421</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>57304199.60992421</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>52197906.52432421</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>52420313.52432421</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>54714394.47842421</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>54714394.47842421</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>54714394.47842421</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>56367945.9893242</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>54865785.9893242</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>53220646.9444242</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>53314918.9444242</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>53314918.9444242</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>55245869.5256242</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>55239339.5256242</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>55239339.5256242</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>55240414.5256242</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>55240414.5256242</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>55095664.7676242</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>55092664.7676242</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>54862169.8334242</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>55245147.0069242</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>55238613.42642421</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>54800291.42642421</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>55100291.42642421</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>53818250.23152421</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>53877933.23152421</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>53877933.23152421</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>54596208.72142421</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>50768307.97552421</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>66307652.13359644</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>65817361.24539644</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>95624676.68619394</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>89915002.67029394</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>70940250.67919394</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>64421039.82009394</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>65010896.04059394</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>63755679.25759394</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>47906073.62079395</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>47369470.38234504</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>50607104.51884504</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>44793701.14044504</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>47820621.96974504</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>49302844.26264504</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>55788059.54784504</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>48584704.13724504</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>50370039.88704504</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>32559016.09074504</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>35761329.23984504</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>36105218.58744504</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>38628904.00201911</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>27782417.40921912</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>27782417.40921912</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>22898183.12259465</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>21620408.76559465</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>13156213.58469465</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>13782494.88469465</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
